--- a/ToDos.xlsx
+++ b/ToDos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFFB81D-3B53-4A1C-BCD1-D2635A6CC0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8100"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
-  <si>
-    <t>Günler</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Pazartesi</t>
   </si>
@@ -77,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,51 +405,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="9" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="9" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -462,9 +461,9 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -475,9 +474,9 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -488,9 +487,9 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -501,9 +500,9 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -514,9 +513,9 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -527,9 +526,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -540,39 +539,37 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -583,9 +580,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -596,9 +593,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -609,9 +606,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -622,9 +619,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -635,9 +632,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -648,9 +645,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -663,6 +660,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>